--- a/example/Pure_Inv_Sales/Mix (Purch To Inv)1 - MixYieldMTP.xlsx
+++ b/example/Pure_Inv_Sales/Mix (Purch To Inv)1 - MixYieldMTP.xlsx
@@ -1,27 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_project\OpenLogic\example\Pure_Inv_Sales\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1B95A6-35FF-415D-9701-4A537972EE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-57708" yWindow="-108" windowWidth="29016" windowHeight="15696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>Time Period</t>
   </si>
@@ -164,31 +156,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#0.0000"/>
-    <numFmt numFmtId="165" formatCode="#0"/>
+    <numFmt numFmtId="166" formatCode="#0.0000"/>
+    <numFmt numFmtId="167" formatCode="#0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <name val="Arial"/>
       <sz val="8"/>
       <color indexed="18"/>
-      <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
       <sz val="8"/>
       <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
       <sz val="8"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+      <b/>
     </font>
   </fonts>
   <fills count="3">
@@ -212,48 +204,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
     <border>
       <left style="thin">
         <color indexed="8"/>
@@ -267,7 +223,6 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -275,353 +230,81 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
-  <a:themeElements>
-    <a:clrScheme name="Стандартная">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Стандартная">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="39" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.11328125" customWidth="true"/>
+    <col min="2" max="2" width="12.11328125" customWidth="true"/>
+    <col min="3" max="3" width="12.11328125" customWidth="true"/>
+    <col min="4" max="4" width="12.11328125" customWidth="true"/>
+    <col min="5" max="5" width="12.11328125" customWidth="true"/>
+    <col min="6" max="6" width="12.11328125" customWidth="true"/>
+    <col min="7" max="7" width="12.11328125" customWidth="true"/>
+    <col min="8" max="8" width="12.11328125" customWidth="true"/>
+    <col min="9" max="9" width="12.11328125" customWidth="true"/>
+    <col min="10" max="10" width="12.11328125" customWidth="true"/>
+    <col min="11" max="11" width="12.11328125" customWidth="true"/>
+    <col min="12" max="12" width="12.11328125" customWidth="true"/>
+    <col min="13" max="13" width="12.11328125" customWidth="true"/>
+    <col min="14" max="14" width="12.11328125" customWidth="true"/>
+    <col min="15" max="15" width="12.11328125" customWidth="true"/>
+    <col min="16" max="16" width="12.11328125" customWidth="true"/>
+    <col min="17" max="17" width="12.11328125" customWidth="true"/>
+    <col min="18" max="18" width="12.11328125" customWidth="true"/>
+    <col min="19" max="19" width="12.11328125" customWidth="true"/>
+    <col min="20" max="20" width="12.11328125" customWidth="true"/>
+    <col min="21" max="21" width="12.11328125" customWidth="true"/>
+    <col min="22" max="22" width="12.11328125" customWidth="true"/>
+    <col min="23" max="23" width="12.11328125" customWidth="true"/>
+    <col min="24" max="24" width="12.11328125" customWidth="true"/>
+    <col min="25" max="25" width="12.11328125" customWidth="true"/>
+    <col min="26" max="26" width="12.11328125" customWidth="true"/>
+    <col min="27" max="27" width="12.11328125" customWidth="true"/>
+    <col min="28" max="28" width="12.11328125" customWidth="true"/>
+    <col min="29" max="29" width="12.11328125" customWidth="true"/>
+    <col min="30" max="30" width="12.11328125" customWidth="true"/>
+    <col min="31" max="31" width="12.11328125" customWidth="true"/>
+    <col min="32" max="32" width="12.11328125" customWidth="true"/>
+    <col min="33" max="33" width="12.11328125" customWidth="true"/>
+    <col min="34" max="34" width="12.11328125" customWidth="true"/>
+    <col min="35" max="35" width="12.11328125" customWidth="true"/>
+    <col min="36" max="36" width="12.11328125" customWidth="true"/>
+    <col min="37" max="37" width="12.11328125" customWidth="true"/>
+    <col min="38" max="38" width="12.11328125" customWidth="true"/>
+    <col min="39" max="39" width="12.11328125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -740,7 +423,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -796,7 +479,7 @@
         <v>300</v>
       </c>
       <c r="S2" s="3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" s="4">
         <v>0</v>
@@ -859,7 +542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
@@ -915,7 +598,7 @@
         <v>300</v>
       </c>
       <c r="S3" s="3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T3" s="4">
         <v>0</v>
@@ -978,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -1034,7 +717,7 @@
         <v>300</v>
       </c>
       <c r="S4" s="3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T4" s="4">
         <v>0</v>
@@ -1098,219 +781,5 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E721DD-8624-4D04-8CAD-37FB212C321E}">
-  <dimension ref="A1:A39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>